--- a/delta2/lib_evidence/eid-art.xlsx
+++ b/delta2/lib_evidence/eid-art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3B552-A0B9-624A-B45F-2B855616635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F078B115-85F7-7941-96DC-A5DCC861CD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="425" r:id="rId12"/>
-    <pivotCache cacheId="426" r:id="rId13"/>
-    <pivotCache cacheId="427" r:id="rId14"/>
-    <pivotCache cacheId="428" r:id="rId15"/>
+    <pivotCache cacheId="220" r:id="rId12"/>
+    <pivotCache cacheId="221" r:id="rId13"/>
+    <pivotCache cacheId="222" r:id="rId14"/>
+    <pivotCache cacheId="223" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
   <si>
     <t>delta_pid</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>process_account</t>
+  </si>
+  <si>
+    <t>art-eid0001</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="428" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="223" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -1345,7 +1348,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="427" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="222" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -1410,7 +1413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="426" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="221" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -1477,7 +1480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="425" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="220" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -2005,9 +2008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2072,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
